--- a/SGCCA_HSIC/Results/Simulation1_DynamicSolidVariable.xlsx
+++ b/SGCCA_HSIC/Results/Simulation1_DynamicSolidVariable.xlsx
@@ -1,32 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programer\Documents\GitHub\SGCCA_HSIC\SGCCA_HSIC\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DDC212-C6F2-4898-82A8-ECC04B5CE0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="15450" yWindow="210" windowWidth="12150" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGCCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGCCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGCCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNGCCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>col_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +141,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +428,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.999</v>
+      </c>
+      <c r="C17">
+        <v>0.997</v>
+      </c>
+      <c r="D17">
+        <v>0.997</v>
+      </c>
+      <c r="E17">
+        <v>2E-3</v>
+      </c>
+      <c r="F17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C18">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D18">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.04</v>
+      </c>
+      <c r="F18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>0.08</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C20">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.93</v>
+      </c>
+      <c r="D21">
+        <v>0.875</v>
+      </c>
+      <c r="E21">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.83E-2</v>
+      </c>
+      <c r="G21">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C37">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D37">
+        <v>0.875</v>
+      </c>
+      <c r="E37">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0.9</v>
+      </c>
+      <c r="C38">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D38">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="D39">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="C40">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D40">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="E40">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F40">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.1356</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.50583333333333302</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.46716792899478471</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.1757771024087014E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.889504900773126E-2</v>
+      </c>
+      <c r="F41">
+        <v>7.8658855000711556E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.13975327237219237</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D57">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E57">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F57">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G57">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>0.94983300000000004</v>
+      </c>
+      <c r="C58">
+        <v>0.85675299999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.83959300000000003</v>
+      </c>
+      <c r="E58">
+        <v>1.66E-3</v>
+      </c>
+      <c r="F58">
+        <v>3.8769999999999998E-3</v>
+      </c>
+      <c r="G58">
+        <v>5.7260000000000002E-3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>0.93816699999999997</v>
+      </c>
+      <c r="C59">
+        <v>0.89278800000000003</v>
+      </c>
+      <c r="D59">
+        <v>0.856518</v>
+      </c>
+      <c r="E59">
+        <v>6.7547999999999997E-2</v>
+      </c>
+      <c r="F59">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.14468700000000001</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>0.89866699999999999</v>
+      </c>
+      <c r="C60">
+        <v>0.87294899999999997</v>
+      </c>
+      <c r="D60">
+        <v>0.79332999999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.14255000000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.167852</v>
+      </c>
+      <c r="G60">
+        <v>0.29266999999999999</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>0.65733299999999995</v>
+      </c>
+      <c r="C61">
+        <v>0.634154</v>
+      </c>
+      <c r="D61">
+        <v>0.316664</v>
+      </c>
+      <c r="E61">
+        <v>0.183111</v>
+      </c>
+      <c r="F61">
+        <v>0.197353</v>
+      </c>
+      <c r="G61">
+        <v>0.36814599999999997</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>